--- a/xlsx/crawling_manu.xlsx
+++ b/xlsx/crawling_manu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,730 +453,3906 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>@kpop-encourage</t>
+          <t>@user-fp9jp1ww4x</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>국산음악 타임라인00:00 FEEL GOOD03:43 WE GO06:39 DM10:02 STAY THIS WAY13:17 #MENOW[신곡]16:07 LOVE BOMB19:30 FUN22:33 TALK&amp;amp;TALK26:14 DKDK(두근두근)29:17 환상속의 그대33:00 물들어[추천]36:38 물고기39:29 달빛바다</t>
+          <t>뭘 뛰어내려 블붕 이런련아 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>451</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>@24hours_mart</t>
+          <t>@ein621</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>저진짜 궁금한게있는데요 국내음악 유튜브라이센스받을수있는 음원사이트있나요???어디서 음악을 가져오시는지 궁금합니다^^;;</t>
+          <t>마지막ㅋㅋㅋㅋ뭘 뛰어ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>@kpop-encourage</t>
+          <t>@user-mc9ic2eo2p</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>라이선스를 받긴 어려운걸로 알고있습다 음원사이트에서 Mp3 파일을 다운받아 사용합니다! 그래서 수익창출은 전혀 되지 않습니다</t>
+          <t>지일아니라고 막말하는거봐 ㅋㅋ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>@user-ii9nl3zr3c</t>
+          <t>@Exit-2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ㅔㅐㅑㅐㅐ</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>어머련ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>@user-nk3rt1ic8q</t>
+          <t>@user-xo9uu7op6b</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>챙이가 너무 예뻐서 클릭</t>
+          <t>블붕 어머련ㅋㅋ 너무 자연스럽게 말해서 순간 혹했네</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>@kpop-encourage</t>
+          <t>@E3_3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>작전 성공</t>
+          <t>자기는 6단점프 있어서 막 말한다고 하네요~</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>@drowsy_life</t>
+          <t>@Panic_Caution</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>비주얼 안누를수가 없네...</t>
+          <t>0:58 노래는 감동적인데 말이 왜이래 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>53</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>@Cute_bbang</t>
+          <t>@sweet2448</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>여름 하면 청량, 청량하면 프나다 이말이야</t>
+          <t>1트만에 터진 거대한 공포처럼 빠르게 왔습니다</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>@Titan.Fall.</t>
+          <t>@user-yp4zc3mz6n</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>난 너희들이  있어서 얼마나 다행인지 모른다 정말...</t>
+          <t>진짜 공격 쓰는 애는 마력 겁나 잘뜨고 마력 쓰는애는 공격 개 잘뜸 확률에 악의가 담겨있다 ..</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>169</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>@qkdwls</t>
+          <t>@user-jb5yl7ib4s</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이쮀용 폼 미쳤네...</t>
+          <t>나 궁수인데 힘인럭만 뜬적 개많음 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>@user-fs9bg3nf1u</t>
+          <t>@deardogpig</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>프로미 노래들이 여름노래 많은것은 맞아요 ㅋ</t>
+          <t>제논인데 인트 마력만 자꾸 뜸;</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>@XXWIN2022</t>
+          <t>@oleoleo_dog</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>빌보드로 가보즈아 !!</t>
+          <t>데벤져 이벤링 큐브돌리는데 다른직업에선 hp 3줄  개잘뜨는데 데벤져론 죽어도 3줄 안나옴</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>@co2594</t>
+          <t>@crim3522</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>프미나 한 1년전부터 좋아했는데 갈수록 좋아지는중</t>
+          <t>ㄹㅇ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>@Sangist</t>
+          <t>@Konggu109</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>노래가 하나같이 동화 같아요...ㅠ상큼발랄</t>
+          <t>그래서 일부러 공격력 띄워야 할때는 법사캐로 돌리고 마력은 비법사캐로 감</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>@kpop-encourage</t>
+          <t>@bopip4280</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>사람이 순진무구해집니다</t>
+          <t>호영뉴비인데 마력 21퍼 나옴</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>@user-uq8bh1pf3p</t>
+          <t>@user-ej8hs4ek6o</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>애플모가 없다... 그치만 조아요~~~</t>
+          <t>백퍼 주작이지. 이 겜은 주작질 안한거 찾기가 어려움</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>@user-tq4de8zj4c</t>
+          <t>@user-cw2lf3li8j</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>이렇게 되면 우리 같은 오래 살고싶다 그리고 이쁜 사진 그리고 이쁜 귀여워 에는 이렇게 해서 라는 생각이 들었어요</t>
+          <t>ㅇㅈ 엔버에서 자꾸 인트가 떠서 화남</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>@Bestartistleeseoyeon</t>
+          <t>@user-wh5si3kh7z</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>홀린듯이 들어왔다…</t>
+          <t>배메인데 앰블 돌리면서 공3줄만 4번봄 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>@user-rq4ze6ov2o</t>
+          <t>@CH27GOP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>썸네일 압도적</t>
+          <t>@oleoleo_dog  ㅇㅈ. 이거 자기 꺼는 안나오게 돼있음. 절대 안나옴. 나오더라도 다른 거 다 나오고 나옴</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>@kpop-encourage</t>
+          <t>@user-hg7rj1xj1n</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>️압도적 안목</t>
+          <t>0:58 ????</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>103</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>@xoe862</t>
+          <t>@Manji-we5yf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>프미나 더 더 떴으면 좋겠다.. 노래 럽밤때부터 너무 잘 듣고 있음ㅠ</t>
+          <t>뭔가 이상해서 다시 돌려봄.. ㅋㅋ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>@kpop-encourage</t>
+          <t>@user-nw2je1lv2y</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>위고 디엠 스디웨 이 바이브 이어가면 우상향은 계속 하지 않을까 싶어요 ㅎ</t>
+          <t>마력캐 공공공, 공격력캐 마마마는 국룰이지....</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>55</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>@대명동축알못</t>
+          <t>@a-ing3389</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>주인장 썸네일 이뻐서 배경했어요유포는 안하고 갠소 할께용</t>
+          <t>저번 주말에 부캐 아델 엠블렘 에디 돌리다 마30 뜬거 생각나네 ㅂㄷㅂㄷ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>@catmarie8845</t>
+          <t>@jjon2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>프나 사랑해주세요</t>
+          <t>ㄹㅇ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>@챙이</t>
+          <t>@snrn8423</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>벌써부터 시원한 느낌~</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>잘 몰라서 그러는데요. 본캐, 부캐 아이템 교환 안 되나요? 던파에서 창고 시스템으로 아이템 옮길 수 있는 것처럼.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>@lalala123.</t>
+          <t>@a-ing3389</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>프로미스나인 많이 사랑해주세요~</t>
+          <t>@snrn8423  같은 직업군이면 보조무기는 돌려쓸 수 있긴 함 예외로 엠블이 교가인 직업은 엠블을 돌려 쓸 수 있고 시그 직업군은 보조 통용이라 5직업 다 쓸 수 있음(대신 플위는 마력..) 나머지 템은 교불..</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>@user-zd3vc1zl1u</t>
+          <t>@Warm_Wind_TTEOK</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>감사합니다..</t>
+          <t>0:27 이게 맞지ㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>@kpop-encourage</t>
+          <t>@월하람</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>저도 감사합니다</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>점점 성장하는게 느껴지는 ^^ 님 응원합니다.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>@grgrhh99</t>
+          <t>@user-qd3pd7wi5g</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>앞으로 프로미스나인 홍보 많이부탁드립니다~^^</t>
+          <t>와...마지막 올이탈 마36 뜬적있는데... ㄱ같은 추억 다시 생각나게 해주네갓닥불 덕분에 따뜻해졌어요</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>@user-xg7qy6ww6e</t>
+          <t>@user-lz4md5kr1h</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>꽹이!</t>
+          <t>아닠ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ오늘도 꿀잼 블붕님ㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>@user-ml5tc9oy6w</t>
+          <t>@user-wy2wf6ej6q</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>up and도 여름에 듣기 좋아요 !!</t>
+          <t>캐릭 이쁘게 잘그리신당</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>@kpop-encourage</t>
+          <t>@user-ty9ng8rd2g</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>배우신 분!</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>근데 유료재화인 큐브도 확률조작하는데 여러가지 다른짓도 했을거라는 의심이 드는건 어쩔수없음예를들어 마력캐에 공격력 10번뜨고 공격력캐에 마력 10번뜨게 해두면 전체로 봤을땐 동일확률처럼 보이지만 실제론 유효 0회따리 개주작인거처럼</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>@jkkim5877</t>
+          <t>@Raynortax</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>프나 타이틀곡뿐만 아니라 수록곡도 거를게 없네요. 가사에서 자존감 뿜뿜인게 느껴지네요!</t>
+          <t>요즘이거도 진짜 그런생각들어서 자기 주스텟별로 큐브 확률좀 조사했으면 좋겠음. 진지하게 교불템들 힘이 주스텟일땐 다른스텟 한바퀴돌아야뜨고 반대로 럭이면 한바퀴돌고 럭뜨고 개웃김걍</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>@user-wi4xb3dq9f</t>
+          <t>@user-gd9pd9vc1g</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>타임라인에 [추천] 이렇게 해놓은거 귀여워서 뽀뽀 마렵네ㅋㅋ 노래 잘 들었습니다</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>@Raynortax 덱스인데 럭12 99 인트12 99 다뜨고 덱스는 두줄도 뽑기힘들어서 메소로 똥꼬쇼 겁나함 템은 거공임 ㄹㅇ 돈ㅈㄹ</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>@kpop-encourage</t>
+          <t>@user-lo9bf4ds3y</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>반영할게요 ㅎㅎ 적극적인 표현과 관심 감사합니다</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>라라 입가린거 개기엽내 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>@chaeuda1</t>
+          <t>@bne12</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>좋은 노래 많네요 신나고 좋습니다</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>ㄱㅅ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>@gohard692</t>
+          <t>@boombeachstory6159</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>요즘 많이 없어진 타입의 청량,이지리스닝 곡들이라 좋아요!!</t>
+          <t>볼빵빵 숍 귀엽</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>@kpop-encourage</t>
+          <t>@MrBebyo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>맞습니다 이지리스닝이라 무한 반복하기 딱 좋아요</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>0:27 다 웃고있는거 커엽네ㅋㅋㅋ풉ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>@gyeumkim4536</t>
+          <t>@xelz99</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>더 뜨자</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋ 그림체 스토리 대박</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>@igotyouu</t>
+          <t>@user-vk3gk9gk7l</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>스와데시!</t>
+          <t>아니 공30 보고 아니 저게 왜 저기서!!! 라고 외친 개붕이면 개추..</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>@nadodehackganda</t>
+          <t>@user-rb5pt9yw6d</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>42:38</t>
+          <t>비숍 넘 귀여워영</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>@rokmc138</t>
+          <t>@Tsukiriri</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>유튜브 채널명 너무 웃겨서 구독합니다. 국채보상운동인 줄 알았네 ㅋㅋㅋ</t>
+          <t>진짜 그림체 비키니랑 찰떡궁합인데....</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>@user-pe9ek1wg8i</t>
+          <t>@user-qc6el1wj6c</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>airplane mode 도 추천</t>
+          <t>결제 태도가 문제라는줄 ㄷㄷ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>@Jun09190</t>
+          <t>@user-lq3kv6mg4c</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>무슨 사진 인가요??</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>마직막 메이플식 연출까지 완벽하네요 ㅋ</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>@user-lx6js5jx1k</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>메이플과는 별개로 그림체가 이뻐서 너무 편안하게 봤다. 구독 누르고 가요!</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>@Alpha_miini</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>메닥이형 사랑해 !!</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>@user-jv3yb3hq8d</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>영상 더 자주 올려주세요</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>@아메바</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1:07 고마워요 블붕스터 ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>@user-zd7vo3sq9z</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>그림이 느무느무 기엽당</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>@user-ft3ph8il2x</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>영상재밌어요</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>@whyhs123</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>메이플 접으니 아침 일찍 일어나서 좋네요</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>@wooklee9469</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>블붕이 이 나쁜녀석.......</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>@xPexial</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0:36 귀엽</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>@user-ud2wt2tu3o</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>스타포스 실패한 캐릭터 목소리 귀엽네요ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>@bjwoo95</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>역시 자기 직업이랑 반대옵션으로 나오게 설정해놓은게 분명합니다 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>@Daeryac</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>스타포스 스테이지나 인방 보는 것 같아 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>@cik247</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>00:28 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아 고소하다고~~</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>@book_re995</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>와...  이장면 ( 마저 실패한다면 밖에 나가서 뛰어내리면 돼!) 라는말에 왜 마음이가지... ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>@Bulhui_Man</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>블빵이 쭈쭈 더 크게 만들어주세요 응애</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>@user-cq5fn1rw2d</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>볼빵빵 비숍 길게 출현해서 좋다</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>@user-mj4iy6je2s</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>메이플스토리2 확률도 궁금하네요</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>@josugeun</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>와 나도 16에서 17성 가는거 2번 원트로 터져봐서 저 마음을 알꺼같다... 다시 생각해도 슬프네</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>@user-xi8ic7gx4s</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>숍숍이랑 라라가 너무 귀여운데 ㅋㅋㅋ 블붕이 템도 어디 한번 해먹어 봤으면 좋겠네요 ㅋㅋㅌㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>@jeongwoohyun9606</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>메랜 전붕이 쌀레릭 시리즈로 풍자영상부탁드려요ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>@grandgrand4249</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>저 비숍ㅋㅋ 예전에 세칼카에서 블래거절했잖아 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>@user-fu9lh8to5i</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>블붕언니 걸크러쉬 멋져</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>@user-ef2du4cf8s</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>이제 창섭디렉터 창섭섭 밈이 고정이 되버렷눜ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>@Doyeahjb</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>"흐음... 결제태도가 불량하네?"</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>@jbk2676</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>채감상 스타포스 확률에 문제가 있는거 같어...  1성 가는데 싫패 하는 것도 좀 적어야지...주문서 확률과 스타 확률이 다른 것 같어...개인의 운이 진짜 억수로 없는 걸 수도 있지만... 그냥 스타포스에 손대기가 싫음..</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>@user-iu1qf5rr6f</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>뛰어내릴곳이 없는데 뭘 뛰어내려야 ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>@SO-js1ll</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ㄹㅇ 이미 저점 한번 찍어서 지금 시점까지 하고 있는 유저들은 뛰어내려도 기껏해야 발목 정도나 삐고 다시 돌아갈듯ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>@Ghost_reportin</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>개귀엽다진짜 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>@rainy2368</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>내가 메이플 비숍해서 자쿰때 접었는데확률조작볼때마다 날 접게만든 데빌에게 감사 절 올리는중ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>@user-sm4vi1ek1x</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>실패를 무시하고 계속 지르면 돈 더빨리다 지금 그만두나 나중에 그만두나 그만둘껀데내상이 커지는데요... ? ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>@user-ke9in5cg3z</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>개웃기네ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>@user-ig5xl7xk1o</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>스타포스 강화 좀 해봤는데 변동확률은 100퍼 있는거같긴함 그날 유독 터진다면 그날은 강화를 피하는게 좋고 한 아이템이 유독 많이 터진다면 그냥 그 템은 놓아주는게 맞음샤타때 방패 20성 (기댓값 약 20억대 초반) 약 300억 먹고 20성 보낸적 있는데 30펑 하고 19성을 한번도 못가니까 주작이란소리밖에 안나오던데</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>@user-jm3lh6zc9j</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>에공삼 예상햇죠 ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>@EEcircuits</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0:45 감동적인 음악과 함께 포기하려는 주인공의 의지를 고양시키려는 분위기인데 한다는 말이 뛰어내려라 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>@BrianFernandez-nc1lo</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>매우꿀재 ㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>@user-jk6xk5md8s</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ㄹㅇ 파괴확률 2프로 3프로 이런거 치고 너무 잘터진다했어</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>@goklee7158</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>벽치기에 내가 왜 심쿵하냐...</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>@bbongbbong8547</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>웃긴데 왜 눈에서 물이 흐르죠.... 어흨</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>@user-uo5tt3gy5r</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>이벤링 명큐 돌릴 때 MP 3줄 계속 뜨는 거 국룰이지</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>@pluto8134</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>보조무기 공격력 붙어서 후려치는거 엄청 쎄졌네 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>@Reinhardt98</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>뛰어내릴 맵이 어디있는데 ㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>@ast8472</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>저건 ㄹㅇ 조사해봐야한다</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>@nostelzia3834</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>블붕아 뭘 뛰어내려 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>@user-ho2dt5iz1o</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>앜ㅋㅋㅋㅋㅋ 겅겅겅!!!!!</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>@jsh4931</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>얼마전에 법사캐로 잠재돌리다 힘12 9 9 뜬 사람으로써 격하게 공감합니다..</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>@user-fo4vg6oe5d</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>주작질해도 MVP레드 달아주는  적우들  부자인 것 같아서 부럽다...</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>@user-zb9nh2xv1p</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>N번째 비올레타가 나를 접게 만들어주었다.. 진심으로 고맙다.. 운영 못하는 겜 접게해줘서..</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>@sooyeong1202</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>칠흑이라 잘터지는게 아니라 모든템이...</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>@CRSSK</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>&amp;gt;&amp;gt;감동실화&amp;lt;&amp;lt;</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>@user-xj8fy3bh5s</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>저상황이 웃겨서 더 망하게하려고 부추기는거 개웃기네 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>@Shendoru</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>귀엽다</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>@TaBuLiAlmighty</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>님 실눈 왜캐 조아함</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>@wasagooddaytoday2725</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>괴물쥐 신발영상 보고오면 이정돈 애교임 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>@jys65</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>숍 귀엽농ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>@taeheelee593</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>그래서 저 비숍이 빡쳐서 불독으로 자전해 복수한거 맞죠?</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>@user-jg5tf7jh6f</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>비숍 귀엽다</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>@vkvivlvm</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>@uranusprince</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ아니 진짜 존1나 웃기네</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>@Noodougie_captain</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>아델도 그려줘 ㅠㅠㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>@user-qv1td4lc7i</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>공마 통합 해주세요</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>@user-ef6bz1ox6f</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>저 웃는 눈  볼때마다 광기가 느껴져 독기 꽉꽉 눌러담아서 웃는 그런 느낌</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>@ararah</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>영원하라..</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>@user-sugarat12</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0:59 ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>@user-cj3vo8mw2d</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>본캐 제네시스 튜너에 뜬 에마삼의 기억이...</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>@user-cr6lx2jy1s</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>쇼케때 비숍 성우도 섭외해라</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>@ENFJ-if6rz</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0:52 이거 어떤 방송인분이 평균 회귀 하려는 얘기 아닌가요??</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>@user-xr4jv4vm5l</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>블붕이 어머 귀엽네 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>@user-nu6tp4kq2j</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>그 와중에 보조무기 SOS...</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>@mindnever7572</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>그래서 고확에 물 팔다가 채금먹는 비숍은 어디있죠? ㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>@user-uh9hs8ol4k</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>솔직히 블래는 뭔 말을 해도 동정표 받을줄 알았는데 이 영상을 보고 생각을 고쳤습니다.감사합니다.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>@dual7370</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>원기시즌:소맥거핀창섭시즌:메닥불</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>@user-fo2dm3ez6y</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ㅂ1숍:우리 블붕이 정신이 나가버렸구나? 2분주기라 프레이가 필요없나봐?</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>@user-mn4hm4lb6l</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>"확률 표기 실수로 인하여.."</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>@user-vs2wc5pq8b</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0:10 보내달라했더니 진짜 하늘나라로 보내버리네 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>@user-cu6ui1hf6v</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>다른겜이 강화확률 주작이라하면 웃어넘기는데 이 게임은 농담이 아닌거 같음 항상 파풀마 18성중에 5번 터트린게 아직도 생생하네</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>@Astraea0331</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋ 공3줄 야발 보자마자 모니터 부술거같다</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>@user-im6wd1uk2s</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋ 개웃겨</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>@Rule_pa</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>근데 이미 게임이 심해까지 떨어졌는데 더 떨어질 곳이 남아 있나요...?</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>@user-ft3ph8il2x</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>추옵마저 실패하면 밖에 나가서 뛰어내리면돼!</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>@user-vs2wc5pq8b</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0:10 보내달라고 했더니 진짜 하늘나라로 보내버리네 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>@user-wv8ko8lp3q</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>이런 게임 어떻게 하지 너무 무서울거같은데</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>@seoIhyang</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>???: 물러나면 하나 전진하면 둘!!</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>@hojae-lee</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>템터져서 옥상에서 떨어지는 메붕이의 속도로 왔습니다</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>@user-ux6lj3dl7k</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>비숍 귀엽다.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>@time_out4105</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>아씨ㅋㅋ. 그림잘그렷다햇는데 뒤통수날리넼ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>@MrWkdrn6151</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>우리 블붕게이는 어깨에 문신을 붙였다 땠다 자유자재네...</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>@onez8954</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>메잘알ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>@unji_moo_hyun</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ㄹㅇ 나는 일부러 마력캐 직작할떄 전사로함 그럼 ㅈㄴ잘뜸 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>@user-nt6ed1zz4t</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>라라 귀여웡</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>@Swordman_DyWoo</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0:11 정보) 17 -&amp;gt; 18 파괴확률은 2.1퍼다.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>@Gjdudwo</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>떳다~~~</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>@user-eb6ry5qg7d</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>비숍 진짜 디지게곱네</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>@user-pj5ey1hk2w</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>아니 블붕아 뛰어내린다니 그게 무슨 소리니</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>@user-jj3ml5hl9m</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>이궈궈던~ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>@Prodovin</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1:17 SOS</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>@user-on3ii5pt9t</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>흙케인직작하겠다고 스타포스 도전한적 있었음. 1615 계속 오가다가 결국은 폭발함. 그경험이 떠오르네요</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>@jmyy456</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>흙케인따위 터진다고 뭐 잃을게있나</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>@user-on3ii5pt9t</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>@jmyy456  평소에 공감능력 없다는 말 자주듣죠? 잃을 게 없다는 게 아니라 아이템 폭발한 경험이 떠올랐다고요.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>@정이준</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>@jmyy456 민영이형 서버어디야?</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>@angdk-sl1km</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ㄹㅇ 뛰어내려야겠누</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>@user-sw2wy8tz4z</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>공격력 직업은 마력 잘뜨고 / 마력직업은 공격력 잘뜨고 ㅋㅋㅋ 주스텟%도 말안해두알지 주보캐 10캐릭 다큐브돌려봐서 넘잘암</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>@user-xi2uk8nr7d</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>이제 갈때가 되었구나 거공이여... 잘가거라</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>@mindeulrae</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>밖에 나가서...?</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>@user-ng5qz6km1s</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>중간에 블붕이 말할때 나온 감미로운 브금 머임?</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>@user-rv4cc6wl5e</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Recollecting Memories 아크 브금</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>@user-mz9xc4pu4p</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>그 와중에 블붕이 아르테리아 갔네ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>@swl7024</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>창섭섭님 부디 저의 기도를 들어주세요….</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>@user-jy9zh9il9i</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>어.. 이건 분명 나인것 같은데??</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>@hodolski</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>메이플 마지막으로 본 게 제논이고 빅토리아 아일랜드 방향으로는 오줌도 안 싸는데 불붕이 눈나 귀여워서 봅니다</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>@jack2eon_</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>저기서 제일 먼저 도망갈 사람은 블래스터로 보이는 걸</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>@user-hp8qo3hb2u</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>까짓거 한번 뛰면되지!</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>@user-qu8kc4gf2f</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>블래 대사 내면의 호로에 쫄아버린 딸기군한테 일침먹이는 루키아 대사 패러디인거 아는 사람?ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>@strong_helphelp</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0:13 (저승으로)보내드렸습니다~^^</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>@user-jn9jh2ss7k</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>개같이 쳐망해도 대창섭께서 리부트 정상화 시켜서 오늘도 좋아~</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>@YS-hi3mu</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>제발 공마 통합좀 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>@user-qi8ix5qo2b</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>밖에나가서 뛰에 내린 사람 한두명 아닐듯?ㄷㄷ</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>@user-ji5yp3tv1i</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>블붕이 너도 결국 메붕이구나</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>@Official_CH7</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>초창기 소맥거핀 냄새남 맛있음</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>@user-of8yj6qv1q</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>부캐 법사 엠블에 공33% 띄워봄. C발 공감 제대로네.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>@crim3522</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>이번에는 조각드랍률이랑 필드장비드랍률 건드린거같더라</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>@user-jb5yl7ib4s</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>조각 어떤날은 개많이뜨고 어떤날은 하나도 안뜨고 ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>@user-gd9pd9vc1g</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>@user-jb5yl7ib4s 조각 드랍율은 정말 손대는거같음</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>@sebstory_8779</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>다 포기했으니 뛰어 내릴 준비 할게요</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>@philip9587</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>그냥 뛰어 내리는게...</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>@user-ui3ni8dd8f</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>블붕이 킹받게하네 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>@user-be4tt2ss2v</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>평균회귀는....존재한다</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>@user-mw4qo3wb8r</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>안 할수록 이득인 겜</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>@user-xx1gh9rc1y</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>큐브만 장난질해놨을까</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>@skiridedie</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>저저번주 스타포스 할인때 150제~160제 22성 6개 60억정도에 한번도 안터지고보냈는데 진짜 거공은 4번터지고 18성에서 멈춤 2.8프로 2.1프로 가 이렇게 높은확률인가?고레벨템은 뭔가 확률 로직이 있는게 분명함</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>@user-cu6ui1hf6v</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>예전에 파풀마 18성 5번 터트린게 아직도 생생함 분명 주작임</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>@CH27GOP</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>아케인 20개 태웠는데 단 한개도 20성 못갔음. 스타포스 횟수 5천회라서 표본도 많은데, 확률 통계 보니까 주작 맞음</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>@yan9031</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>22성 안터지고 6개 보낸것보다 18가다4번터질 확률이 더높아용~그냥 평균회귀한거지</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>@user-gd9pd9vc1g</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>@CH27GOP ㅈㄴ 웃긴게 나도 생각나는게 아케인 장갑 17에서 18단하나 올리려다가 44억 정도 빨아먹히고 터져서 돈더 써서 17성 복구함 참네ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>@CH27GOP</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>@user-gd9pd9vc1g  편차를 고려하더라도 , 이게 정도가 지나치면 누가 봐도 장난질 해놓은거지</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>@MilkyWays820</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>0:55 웃참 하느라 슬픈 라라</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>@grandgrand4249</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>님ㅋㅋ 겟앰도 하고 메이플도 하시나요 아ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>@user-jb8qi9sp4s</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>라라조아!!! 꺄아</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>@user-kc3re6jp8q</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>반지 더스크ㄷㄷ</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>@mapleuser</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>에공삼 개부럽네</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>@MeDacBull</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>@user-dy5hj7vq9l</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>저 에공삼 뜸</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>@maplebishop</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>다음 영상은 스타포스 스테이지 어떤가요??</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>@lapo459</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>우린 블래스터를 보고 머가리 깨진 메숭이라고 부르기로 했어요~~~</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>@user-bz8bx1uz2d</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>메이플 아이템 파괴=주식 나락=X같은,인생 조짐=한강 다이브=사망</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>@philip9587</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>태도??? 혹시 결제태도 이거 맞음???</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>@dungenadventure</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1:29 공격력 만땅이라 그런지 댐지 쩌네</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>@EEcircuits</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>공격력 30% 추가면 블붕이 원콤이지 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>@jaewonchoi1858</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>어딜 블붕이가 황숍님께..</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>@Tsukiriri</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>추옵도 INT 1추 절대안나오고STR 1추 잘나옴 부캐키울려면 본캐에서 추옵돌려야할판</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>@user-gf6bn4vl6g</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>근데 거대한 공포는 추옵이 안되는데..</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>@user-po7pi5zq3d</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>와  공30퍼 뽑고 블붕이 원킬컷내는거보니까 강해진듯?</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>@user-ef8mh2wk9f</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>이거론 부족해 메닥불불불@@@@@@@</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>@user-rr4dz5xf5u</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>라라커엽 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>@themathlee</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>블래 나빴다</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>@peroorsehindipwdasap7700</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>법사 엠블 윗잠 공33%는 국룰</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>@user-ou8ih4mq1m</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>블붕이 아르테리아 입성?</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>@user-zu4sx4cg4r</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>아직한발넘엇다</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>@reveal4268</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>법사는 공공공 전사는 마마마</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>@juneao</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>스타포스 확률조작이랑 직업별 유효스텟도 백퍼 사기쳤을텐데 아직도 게임 쳐하면 그냥 병신이짘ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>@user-fy8ts8ts1x</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>공마 통합해줘!</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>@user-cu6ui1hf6v</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>솔직히 당연히 했어야함</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>@Astraea0331</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ㄹㅇ 이거 진작에 했어야됨</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>@user-gd9pd9vc1g</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>@user-cu6ui1hf6v 스타포스랑 옵션 천장까지좀 만들어주면 안되나..</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>@gogobeetle</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>힘법사 ㅊㅊㅊㅊㅊㅊ</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>@user-oh9bn2hb6y</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>구라안치고 근데 다들 경험한 내용이라 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 151615161516151615161516151516.... 무한반복되는거 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 저거 절대 30% 아님</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>@user-ue3ee1gu9q</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>스타포스망하고 큐브도망하고 추옵도망하면 줌서작하면그만이야~~</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>@user-hi3fn8yc6c</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>나는 안해서 정말 다행인 게임 메이플 ㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>@용사디프</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>계정락은 존재한다</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>@presti2565</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>0:58 에?</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>@user-lp6tu8nd3w</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>아 공공공이라니 화나네</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>@J_Nao</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>진짜 셋다 개쳐망해서 계정팔고 접어버림...</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>@Lurang_o</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>난 차라리 패배자 할래</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>@kong-go</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>비숍이라 안불쌍한..</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>@user-ky2iy5xp7w</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>나 시골섭 보마 (였는데) 보조무기 매물 없어서 40장 50장 꼴아박아서 보보공 한번 못봤다 보보마는 3번 떳다..</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>@user-ws6jf5ke5j</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>시골섭은 보조를 직작함? ㅋㅋㅋㅋ 그거 쌍레5줄 기댓값 거의 5~600억은 할텐데 해방큐브보다 잡옵많으니</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>@blazegun</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>​ @user-ws6jf5ke5j  마땅한 물량이 없으면 직작하든가 월드 리프 때 끌어오든가 해야죠 뭐ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>@yyg3524</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>아르테리아인거 보니까 블붕이 280찍었구나 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>@nitrouni</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>어림없지 파괴에 1번 웃음공격력 3줄에 2번 웃음 ㅋㅋ메이플 접길 잘했다... - 전 비숍</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>@user-nq2pz6pu9i</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>이게 메이플식 사고방식인가?</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>@EEcircuits</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>3%면 고확률입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>@user-fo8wd3go3h</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>블래 개 악질이네 ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>@whyhs123</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>@user-sq4wb8rn3u</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>법사한테 공30주고전사/해적/궁수/도적한테 마30주고과학임 ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>@CH27GOP</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>내가 엠블린 유효 3줄 8개 정도 만들었는데 단 한번도 자기꺼 3줄 나온 적 없음. 무조건 다른 거 3줄 먼저 나옴. 확률 장난질 해놓은거 확실함.</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>@user-vr4eg7en9o</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>@user-cw2lf3li8j</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>팡이요?</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>@BGW6652</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>블붕이 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>@user-by3ng4sc9o</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>순수재미 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>@ralee5952</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>그냥 메이플이 정신병이야 탈출해 빨리</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>@user-fy1wg2hr7t</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>라라 ㄱㅇㅇ</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>@user-hp5mi3by6z</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>공격력 뜨면 좋은거아니에여?</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>@user-jt4qn4gf3v</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>비숍은 마법사라 공격력이아닌 마력을 띄워야함</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>@user-hp5mi3by6z</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>@user-jt4qn4gf3v   아하 감사합니다</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>@user-mr5kc2xr8y</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>개같이 달려왔다 멍!멍!</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>@zzinow</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>세 줄 잘 뜬 거 아닌가? 진짜 모름</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>@j.taro11</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>저 법산데 거공 인트는 안뜨고 럭 30퍼 떴습니다</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>@jmyy456</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>칠흑은 잠재그렇게뜨면 팔면되잖아</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>@CH27GOP</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>@jmyy456  칠흑은 그게 돼서 좋지. 미트라는....</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>@user-mn2ki1pq4t</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>@user-qq4uq4is5r</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>ㅋㅋ 카드돌려막긴가? 강화가 머가 망하면 다른걸로 돌려막는거지?</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>@user-bm5cf1un4q</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>근데 완전 진격의 거인보는거같다 ㅋㅋㅋㅋ동료들의 목숨이 다날아가버렸는데 네가요기서 멈추면 다 헛된희생이잖아!</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>@wolyoil_silheong</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>나도 블래한테 벽쿵 당하고싶다</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>@user-xp8px7ve6r</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>다음화내놔</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>@user-ti5xu2nv3z</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>귀엽다</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>@아이리_Airi</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>@ploaaa9788</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>비겁하게 전공서적으로 패버리네 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>@nn3053</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>걍주작임 ㄹㅇ</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>@user-vu1xd7cf5i</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>@user-el7mb4cy3e</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>빠져나갈수없는그의뫼비우스띠</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>@lupinarsene392</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>되겟냐?</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>@user-kb3oh2ke2j</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>@walldevil</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>어머련아 ㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>@mysky9119</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1299ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>@초코빼빼로</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>주작작 주주작</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>@user-qj3yy6dc7o</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>@YagamiLight1972</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>그냥 겜안하면됨 접으면 편해 ㅋ</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>@novaterra6495</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>와 블붕 개나빠</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>@yoonamugae</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>망겜이야 콘</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>@Leon-kt3vn</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>조같은 ㅈ작 잘 봤습니다 :)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>@user-sh6hg3ig7s</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>비숍 꼴림</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
